--- a/document/excel/Uji valid dan reli.xlsx
+++ b/document/excel/Uji valid dan reli.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\PENGUJIAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\document\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E277D8B-E122-4524-8174-748E36E1DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CE65AF-D36B-46F7-8927-10F0129AAC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="2" r:id="rId1"/>
-    <sheet name="rTabel" sheetId="3" r:id="rId2"/>
+    <sheet name="PERTANYAAN" sheetId="4" r:id="rId1"/>
+    <sheet name="Form Responses 1" sheetId="2" r:id="rId2"/>
+    <sheet name="rTabel" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -528,6 +529,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -537,10 +542,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,10 +805,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F00256-A230-4D94-825A-CB6552FE322B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEF6905-84EA-4998-A96D-B168CF5C9440}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -908,10 +921,10 @@
         <f>SUM(C2:M2)</f>
         <v>40</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="Q2" s="27">
         <f>COUNTIF(B2:B31,"Masyarakat Umum")</f>
         <v>5</v>
       </c>
@@ -960,10 +973,10 @@
         <f t="shared" ref="N3:N31" si="0">SUM(C3:M3)</f>
         <v>38</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="27">
         <f>COUNTIF(B2:B31,"Guru")</f>
         <v>10</v>
       </c>
@@ -1012,10 +1025,10 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="27">
         <f>COUNTIF(B2:B31,"Orang Tua")</f>
         <v>15</v>
       </c>
@@ -1064,10 +1077,10 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="27">
         <f>SUM(Q2:Q4)</f>
         <v>30</v>
       </c>
@@ -2269,7 +2282,7 @@
         <v>0.67311824069731852</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" ref="B34:L34" si="1">CORREL(D2:D31,$N$2:$N$31)</f>
+        <f t="shared" ref="C34:L34" si="1">CORREL(D2:D31,$N$2:$N$31)</f>
         <v>0.47628436025345156</v>
       </c>
       <c r="D34" s="12">
@@ -2552,7 +2565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A1EEE4-30C6-40DA-9435-51B588E7E16D}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -2563,22 +2576,22 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="14">
         <v>0.05</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
